--- a/JessicaLevis_Homework.xlsx
+++ b/JessicaLevis_Homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlevi\code\savvycoders\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA91FD1E-83F4-45DA-A88E-AA532BE364BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8EAAF5-2321-48E1-A6B5-688C43A6D75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{B6524C48-2166-440B-89F3-C924F7D330DF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{B6524C48-2166-440B-89F3-C924F7D330DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="1" r:id="rId1"/>
@@ -603,15 +603,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -646,6 +637,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -729,13 +729,7 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -747,7 +741,13 @@
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -38479,25 +38479,25 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="21">
-    <format dxfId="15">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="20">
+    <format dxfId="16">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="15">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="14">
@@ -39190,8 +39190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC1557B-DF21-4ED8-961A-FA933229FC2B}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39639,8 +39639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1C1906-31C1-4BBB-8CAD-758C46E3890C}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39677,30 +39677,30 @@
       <c r="C3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="19"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
       <c r="O3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="22"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
@@ -39712,49 +39712,54 @@
       <c r="C4" s="13">
         <v>10</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="20">
+        <v>42</v>
+      </c>
+      <c r="E4" s="21">
+        <v>39</v>
+      </c>
+      <c r="F4" s="21">
+        <v>45</v>
+      </c>
+      <c r="G4" s="21">
         <v>40</v>
       </c>
-      <c r="E4" s="24">
-        <v>39</v>
-      </c>
-      <c r="F4" s="24">
-        <v>40</v>
-      </c>
-      <c r="G4" s="24">
-        <v>40</v>
-      </c>
-      <c r="H4" s="24">
+      <c r="H4" s="21">
         <v>25</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="22">
         <f>(SUM(D4:H4)*C4)</f>
-        <v>1840</v>
+        <v>1910</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="23">
+        <f>IF(D4&gt;40, D4-40, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="K4" s="23">
+        <f t="shared" ref="K4:N14" si="0">IF(E4&gt;40, E4-40, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="23">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K4" s="26">
+      <c r="M4" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="26">
-        <v>5</v>
-      </c>
-      <c r="M4" s="26">
-        <v>4</v>
-      </c>
-      <c r="N4" s="26">
+      <c r="N4" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="24">
         <f>C4*(J4+K4+L4+M4+N4)*$S$7</f>
-        <v>210</v>
+        <v>105</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="25">
         <f>I4+O4</f>
-        <v>2050</v>
+        <v>2015</v>
       </c>
-      <c r="S4" s="29"/>
+      <c r="S4" s="26"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
@@ -39766,47 +39771,52 @@
       <c r="C5" s="13">
         <v>15</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="20">
         <v>38</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <v>38</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="21">
         <v>12</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="21">
         <v>12</v>
       </c>
-      <c r="H5" s="24">
-        <v>5</v>
+      <c r="H5" s="21">
+        <v>50</v>
       </c>
-      <c r="I5" s="25">
-        <f t="shared" ref="I5:I14" si="0">(SUM(D5:H5)*C5)</f>
-        <v>1575</v>
+      <c r="I5" s="22">
+        <f t="shared" ref="I5:I14" si="1">(SUM(D5:H5)*C5)</f>
+        <v>2250</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="23">
+        <f t="shared" ref="J5:J14" si="2">IF(D5&gt;40, D5-40, 0)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="26">
-        <v>0</v>
+      <c r="N5" s="23">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
-      <c r="O5" s="27">
-        <f t="shared" ref="O5:O14" si="1">C5*(J5+K5+L5+M5+N5)*$S$7</f>
-        <v>0</v>
+      <c r="O5" s="24">
+        <f t="shared" ref="O5:O14" si="3">C5*(J5+K5+L5+M5+N5)*$S$7</f>
+        <v>225</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="25">
         <f>I5+O5</f>
-        <v>1575</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -39819,47 +39829,52 @@
       <c r="C6" s="13">
         <v>3.5</v>
       </c>
-      <c r="D6" s="23">
-        <v>20</v>
+      <c r="D6" s="20">
+        <v>49</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>40</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <v>8</v>
       </c>
-      <c r="G6" s="24">
-        <v>25</v>
+      <c r="G6" s="21">
+        <v>52</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="21">
         <v>40</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="22">
+        <f t="shared" si="1"/>
+        <v>661.5</v>
+      </c>
+      <c r="J6" s="23">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="K6" s="23">
         <f t="shared" si="0"/>
-        <v>465.5</v>
-      </c>
-      <c r="J6" s="26">
         <v>0</v>
       </c>
-      <c r="K6" s="26">
-        <v>6</v>
-      </c>
-      <c r="L6" s="26">
+      <c r="L6" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N6" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N6" s="26">
-        <v>0</v>
+      <c r="O6" s="24">
+        <f t="shared" si="3"/>
+        <v>110.25</v>
       </c>
-      <c r="O6" s="27">
-        <f t="shared" si="1"/>
-        <v>31.5</v>
-      </c>
-      <c r="P6" s="28">
-        <f t="shared" ref="P6:P14" si="2">I6+O6</f>
-        <v>497</v>
+      <c r="P6" s="25">
+        <f>I6+O6</f>
+        <v>771.75</v>
       </c>
       <c r="R6" t="s">
         <v>52</v>
@@ -39875,47 +39890,52 @@
       <c r="C7" s="13">
         <v>20.100000000000001</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="20">
         <v>12</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <v>35</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="21">
         <v>40</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="21">
         <v>2</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="21">
         <v>40</v>
       </c>
-      <c r="I7" s="25">
-        <f t="shared" si="0"/>
+      <c r="I7" s="22">
+        <f t="shared" si="1"/>
         <v>2592.9</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="23">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="26">
-        <v>2</v>
-      </c>
-      <c r="M7" s="26">
+      <c r="L7" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="26">
+      <c r="M7" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" s="27">
-        <f t="shared" si="1"/>
-        <v>60.300000000000004</v>
+      <c r="N7" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
-      <c r="P7" s="28">
-        <f t="shared" si="2"/>
-        <v>2653.2000000000003</v>
+      <c r="O7" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="25">
+        <f t="shared" ref="P6:P14" si="4">I7+O7</f>
+        <v>2592.9</v>
       </c>
       <c r="R7" t="s">
         <v>55</v>
@@ -39934,47 +39954,52 @@
       <c r="C8" s="13">
         <v>5.75</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="20">
         <v>5</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="21">
         <v>40</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="21">
         <v>9</v>
       </c>
-      <c r="G8" s="24">
-        <v>40</v>
+      <c r="G8" s="21">
+        <v>45</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="21">
         <v>35</v>
       </c>
-      <c r="I8" s="25">
-        <f t="shared" si="0"/>
-        <v>741.75</v>
+      <c r="I8" s="22">
+        <f t="shared" si="1"/>
+        <v>770.5</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="23">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="26">
-        <v>7</v>
-      </c>
-      <c r="L8" s="26">
+      <c r="K8" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M8" s="26">
+      <c r="L8" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="26">
+      <c r="M8" s="23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O8" s="27">
-        <f t="shared" si="1"/>
-        <v>60.375</v>
+      <c r="O8" s="24">
+        <f t="shared" si="3"/>
+        <v>43.125</v>
       </c>
-      <c r="P8" s="28">
-        <f t="shared" si="2"/>
-        <v>802.125</v>
+      <c r="P8" s="25">
+        <f t="shared" si="4"/>
+        <v>813.625</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -39987,47 +40012,52 @@
       <c r="C9" s="13">
         <v>12</v>
       </c>
-      <c r="D9" s="23">
-        <v>19</v>
+      <c r="D9" s="20">
+        <v>46</v>
       </c>
-      <c r="E9" s="24">
-        <v>40</v>
+      <c r="E9" s="21">
+        <v>47</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="21">
         <v>9</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="21">
         <v>15</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="21">
         <v>38</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="22">
+        <f t="shared" si="1"/>
+        <v>1860</v>
+      </c>
+      <c r="J9" s="23">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K9" s="23">
         <f t="shared" si="0"/>
-        <v>1452</v>
+        <v>7</v>
       </c>
-      <c r="J9" s="26">
+      <c r="L9" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="26">
-        <v>8</v>
-      </c>
-      <c r="L9" s="26">
+      <c r="M9" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="26">
+      <c r="N9" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N9" s="26">
-        <v>0</v>
+      <c r="O9" s="24">
+        <f t="shared" si="3"/>
+        <v>234</v>
       </c>
-      <c r="O9" s="27">
-        <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="P9" s="28">
-        <f t="shared" si="2"/>
-        <v>1596</v>
+      <c r="P9" s="25">
+        <f t="shared" si="4"/>
+        <v>2094</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -40040,47 +40070,52 @@
       <c r="C10" s="13">
         <v>6.55</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="20">
         <v>40</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="21">
         <v>39</v>
       </c>
-      <c r="F10" s="24">
-        <v>38</v>
+      <c r="F10" s="21">
+        <v>60</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="21">
         <v>15</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="21">
         <v>39</v>
       </c>
-      <c r="I10" s="25">
-        <f t="shared" si="0"/>
-        <v>1120.05</v>
+      <c r="I10" s="22">
+        <f t="shared" si="1"/>
+        <v>1264.1499999999999</v>
       </c>
-      <c r="J10" s="26">
-        <v>9</v>
-      </c>
-      <c r="K10" s="26">
+      <c r="J10" s="23">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="26">
+      <c r="K10" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M10" s="26">
+      <c r="L10" s="23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M10" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O10" s="27">
-        <f t="shared" si="1"/>
-        <v>88.424999999999997</v>
+      <c r="O10" s="24">
+        <f t="shared" si="3"/>
+        <v>196.5</v>
       </c>
-      <c r="P10" s="28">
-        <f t="shared" si="2"/>
-        <v>1208.4749999999999</v>
+      <c r="P10" s="25">
+        <f t="shared" si="4"/>
+        <v>1460.6499999999999</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -40093,47 +40128,52 @@
       <c r="C11" s="13">
         <v>30</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="20">
+        <v>48</v>
+      </c>
+      <c r="E11" s="21">
         <v>40</v>
       </c>
-      <c r="E11" s="24">
-        <v>40</v>
-      </c>
-      <c r="F11" s="24">
+      <c r="F11" s="21">
         <v>35</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="21">
         <v>30</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="21">
         <v>1</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="22">
+        <f t="shared" si="1"/>
+        <v>4620</v>
+      </c>
+      <c r="J11" s="23">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K11" s="23">
         <f t="shared" si="0"/>
-        <v>4380</v>
-      </c>
-      <c r="J11" s="26">
-        <v>12</v>
-      </c>
-      <c r="K11" s="26">
-        <v>2</v>
-      </c>
-      <c r="L11" s="26">
         <v>0</v>
       </c>
-      <c r="M11" s="26">
+      <c r="L11" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N11" s="26">
+      <c r="M11" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="27">
-        <f t="shared" si="1"/>
-        <v>630</v>
+      <c r="N11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
-      <c r="P11" s="28">
-        <f t="shared" si="2"/>
-        <v>5010</v>
+      <c r="O11" s="24">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="P11" s="25">
+        <f t="shared" si="4"/>
+        <v>4980</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -40146,47 +40186,52 @@
       <c r="C12" s="13">
         <v>75</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="20">
         <v>40</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="21">
         <v>40</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="21">
         <v>2</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="21">
         <v>40</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="21">
         <v>15</v>
       </c>
-      <c r="I12" s="25">
-        <f t="shared" si="0"/>
+      <c r="I12" s="22">
+        <f t="shared" si="1"/>
         <v>10275</v>
       </c>
-      <c r="J12" s="26">
-        <v>5</v>
-      </c>
-      <c r="K12" s="26">
-        <v>5</v>
-      </c>
-      <c r="L12" s="26">
+      <c r="J12" s="23">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12" s="26">
-        <v>5</v>
-      </c>
-      <c r="N12" s="26">
+      <c r="K12" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="27">
-        <f t="shared" si="1"/>
-        <v>1687.5</v>
+      <c r="L12" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
-      <c r="P12" s="28">
-        <f t="shared" si="2"/>
-        <v>11962.5</v>
+      <c r="M12" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="25">
+        <f t="shared" si="4"/>
+        <v>10275</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -40199,47 +40244,52 @@
       <c r="C13" s="13">
         <v>40</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="20">
         <v>40</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="21">
         <v>40</v>
       </c>
-      <c r="F13" s="24">
-        <v>7</v>
+      <c r="F13" s="21">
+        <v>42</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="21">
+        <v>48</v>
+      </c>
+      <c r="H13" s="21">
         <v>40</v>
       </c>
-      <c r="H13" s="24">
-        <v>40</v>
+      <c r="I13" s="22">
+        <f t="shared" si="1"/>
+        <v>8400</v>
       </c>
-      <c r="I13" s="25">
-        <f t="shared" si="0"/>
-        <v>6680</v>
-      </c>
-      <c r="J13" s="26">
-        <v>3</v>
-      </c>
-      <c r="K13" s="26">
+      <c r="J13" s="23">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="26">
+      <c r="K13" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="26">
-        <v>6</v>
+      <c r="L13" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
-      <c r="N13" s="26">
-        <v>4</v>
+      <c r="M13" s="23">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
-      <c r="O13" s="27">
-        <f t="shared" si="1"/>
-        <v>780</v>
+      <c r="N13" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
-      <c r="P13" s="28">
-        <f t="shared" si="2"/>
-        <v>7460</v>
+      <c r="O13" s="24">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="P13" s="25">
+        <f t="shared" si="4"/>
+        <v>9000</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -40252,87 +40302,92 @@
       <c r="C14" s="13">
         <v>25</v>
       </c>
-      <c r="D14" s="23">
-        <v>38</v>
+      <c r="D14" s="20">
+        <v>59</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="21">
         <v>32</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="21">
         <v>6</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="21">
         <v>6</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="21">
         <v>25</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="22">
+        <f t="shared" si="1"/>
+        <v>3200</v>
+      </c>
+      <c r="J14" s="23">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="K14" s="23">
         <f t="shared" si="0"/>
-        <v>2675</v>
-      </c>
-      <c r="J14" s="26">
         <v>0</v>
       </c>
-      <c r="K14" s="26">
+      <c r="L14" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="26">
+      <c r="M14" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="26">
+      <c r="N14" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N14" s="26">
-        <v>0</v>
+      <c r="O14" s="24">
+        <f t="shared" si="3"/>
+        <v>712.5</v>
       </c>
-      <c r="O14" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="28">
-        <f t="shared" si="2"/>
-        <v>2675</v>
+      <c r="P14" s="25">
+        <f t="shared" si="4"/>
+        <v>3912.5</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J15" s="29"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="27">
         <f>MAX(P4:P14)</f>
-        <v>11962.5</v>
+        <v>10275</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="27">
         <f>MIN(P4:P14)</f>
-        <v>497</v>
+        <v>771.75</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="27">
         <f>AVERAGE(P4:P14)</f>
-        <v>3408.1181818181822</v>
+        <v>3671.8568181818187</v>
       </c>
-      <c r="O18" s="30"/>
+      <c r="O18" s="27"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="27">
         <f>SUM(P4:P14)</f>
-        <v>37489.300000000003</v>
+        <v>40390.425000000003</v>
       </c>
       <c r="I19" t="s">
         <v>71</v>
@@ -40358,141 +40413,141 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="16.6328125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.08984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.90625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.08984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="31" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.7265625" style="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4" style="31" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.08984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.81640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4" style="31" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.08984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.90625" style="31" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.08984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" style="31" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.90625" style="31" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4" style="31" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.08984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.81640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4" style="31" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.08984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="3.90625" style="31" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="4.08984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.08984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9" style="31" bestFit="1" customWidth="1"/>
-    <col min="44" max="46" width="10" style="31" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="10.54296875" style="31" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.6328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="7" style="31" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.54296875" style="31" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10" style="31" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.54296875" style="31" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="8.08984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="7.08984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="7.6328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="60" max="67" width="6.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="7" style="31" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="6.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="70" max="73" width="7.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="8.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="11.08984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="76" max="16384" width="8.7265625" style="31"/>
+    <col min="1" max="5" width="16.6328125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.36328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.36328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.90625" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.7265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" style="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.36328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4" style="28" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.36328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.90625" style="28" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" style="28" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.90625" style="28" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4" style="28" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="3.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.36328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4" style="28" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.36328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.90625" style="28" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9" style="28" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="10" style="28" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="10.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.6328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7" style="28" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10" style="28" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="8.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="7.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.6328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="60" max="67" width="6.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7" style="28" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="6.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="70" max="73" width="7.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="11.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="76" max="16384" width="8.7265625" style="28"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="30">
         <v>64894.25</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="30">
         <v>70</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="30">
         <v>1</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="30">
         <v>64965.25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="30">
         <v>64894.25</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="30">
         <v>70</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="30">
         <v>1</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="30">
         <v>64965.25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="35">
         <v>64894.25</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="35">
         <v>70</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="35">
         <v>1</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="35">
         <v>64965.25</v>
       </c>
     </row>
@@ -40505,7 +40560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE4CDCA-9C06-4A46-A8F0-0447CF5BD9AC}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -40535,184 +40590,184 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="27">
         <v>320.84999999999997</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="27">
         <v>174</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="27">
         <v>4596.2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="27">
         <v>10</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="27">
         <v>6</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="27">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="27">
         <v>18</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="27">
         <v>21</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="27">
         <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="27">
         <v>13.25</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="27">
         <v>40</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="27">
         <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="27">
         <v>21.5</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="27">
         <v>20</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="27">
         <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="27">
         <v>25</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="27">
         <v>16</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="27">
         <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="27">
         <v>18</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="27">
         <v>15</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="27">
         <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="27">
         <v>13</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="27">
         <v>2</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="27">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="27">
         <v>55</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="27">
         <v>15</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="27">
         <v>825</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="27">
         <v>91.2</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="27">
         <v>17</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="27">
         <v>775.2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="27">
         <v>12</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="27">
         <v>2</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="27">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="27">
         <v>43.9</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="27">
         <v>20</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="27">
         <v>878</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="27">
         <v>320.84999999999997</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="27">
         <v>174</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="27">
         <v>4596.2</v>
       </c>
     </row>
